--- a/resources/checklist_submission_requirements.xlsx
+++ b/resources/checklist_submission_requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CF2C24-E3FB-4CFD-AA15-61805DB1E2CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7C2B73-18CC-41DF-838F-D40829DCF690}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Front-End Web Design</t>
   </si>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -498,6 +498,9 @@
       </c>
     </row>
     <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
@@ -516,6 +519,9 @@
       </c>
     </row>
     <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
